--- a/src/assets/files/dkVstep/mau-phongthi.xlsx
+++ b/src/assets/files/dkVstep/mau-phongthi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\project\angular\v14\dangky-vstep\src\assets\files\dkVstep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686C382E-0642-4979-95E3-32BED0169A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C80BC0-2D4A-41A3-A470-D1E3B10FA264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5928" yWindow="3168" windowWidth="23040" windowHeight="12120" xr2:uid="{8BF91288-6BA4-47E7-A5BF-CAE1DDE07FC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BF91288-6BA4-47E7-A5BF-CAE1DDE07FC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -47,23 +47,50 @@
     <t xml:space="preserve">Phòng thi </t>
   </si>
   <si>
-    <t>Giảng viên coi thi</t>
-  </si>
-  <si>
     <t>Số lượng thí sinh</t>
   </si>
   <si>
-    <t>ICTU</t>
-  </si>
-  <si>
-    <t>Trần Minh Long, Triệu thị Phượng</t>
+    <t>Ngày thi</t>
+  </si>
+  <si>
+    <t>Địa điểm dự thi</t>
+  </si>
+  <si>
+    <t>diem2</t>
+  </si>
+  <si>
+    <t>Tòa C1 phòng C1.101</t>
+  </si>
+  <si>
+    <t>Tòa C1 phòng C1.102</t>
+  </si>
+  <si>
+    <t>Tòa C1 phòng C1.103</t>
+  </si>
+  <si>
+    <t>Tòa C1 phòng C1.104</t>
+  </si>
+  <si>
+    <t>Tòa C1 phòng C1.105</t>
+  </si>
+  <si>
+    <t>Tòa C1 phòng C1.106</t>
+  </si>
+  <si>
+    <t>Thời gian dự thi</t>
+  </si>
+  <si>
+    <t>13h30</t>
+  </si>
+  <si>
+    <t>06h30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +102,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,10 +133,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,23 +484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CE2848-B86C-49EE-935E-5C81C408F915}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,115 +512,297 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D8" s="3">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
+      <c r="D12" s="3">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4">
+        <v>46047</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>